--- a/NextJs Notes.xlsx
+++ b/NextJs Notes.xlsx
@@ -8,23 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8660E469-54C4-41E4-A0F8-796F86CE76A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CACF14-E88A-45FE-8CCC-29D4F291C58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="11" xr2:uid="{7C365369-33F3-46D7-850E-66C6CABD008F}"/>
+    <workbookView xWindow="28680" yWindow="870" windowWidth="19440" windowHeight="14880" firstSheet="4" activeTab="6" xr2:uid="{7C365369-33F3-46D7-850E-66C6CABD008F}"/>
   </bookViews>
   <sheets>
     <sheet name="Folder Structure" sheetId="2" r:id="rId1"/>
     <sheet name="Layout" sheetId="1" r:id="rId2"/>
-    <sheet name="Fetching Data (Old version)" sheetId="4" r:id="rId3"/>
-    <sheet name="Fetching Data (New Version)" sheetId="6" r:id="rId4"/>
+    <sheet name="Fetching Data (New Version)" sheetId="6" r:id="rId3"/>
+    <sheet name="Fetching Data (Old version)" sheetId="4" r:id="rId4"/>
     <sheet name="NextJS Changes" sheetId="7" r:id="rId5"/>
-    <sheet name="Forms" sheetId="5" r:id="rId6"/>
-    <sheet name="Route handler with Two action" sheetId="8" r:id="rId7"/>
-    <sheet name="Login No DB" sheetId="9" r:id="rId8"/>
-    <sheet name="Login with DB" sheetId="10" r:id="rId9"/>
-    <sheet name="Login FE useActionState" sheetId="11" r:id="rId10"/>
-    <sheet name="LOGIN FE routehandler" sheetId="12" r:id="rId11"/>
-    <sheet name="Sheet7" sheetId="13" r:id="rId12"/>
+    <sheet name="Server Actions" sheetId="14" r:id="rId6"/>
+    <sheet name="params &amp; searchparams" sheetId="16" r:id="rId7"/>
+    <sheet name="server props api" sheetId="15" r:id="rId8"/>
+    <sheet name="Route handler with Two action" sheetId="8" r:id="rId9"/>
+    <sheet name="Forms" sheetId="5" r:id="rId10"/>
+    <sheet name="Login No DB" sheetId="9" r:id="rId11"/>
+    <sheet name="Login with DB" sheetId="10" r:id="rId12"/>
+    <sheet name="Login FE useActionState" sheetId="11" r:id="rId13"/>
+    <sheet name="LOGIN FE routehandler" sheetId="12" r:id="rId14"/>
+    <sheet name="Sheet7" sheetId="13" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="679">
   <si>
     <t>Template</t>
   </si>
@@ -3986,13 +3989,1179 @@
   </si>
   <si>
     <t xml:space="preserve">      {errors.general &amp;&amp; &lt;p&gt;{errors.general.message}&lt;/p&gt;}</t>
+  </si>
+  <si>
+    <t>What are Server Actions?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Server Action</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Just a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">function marked with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>'use server'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Automatically runs on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (never sent to the browser)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Can be used for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mutating data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (e.g., saving to a database)</t>
+    </r>
+  </si>
+  <si>
+    <t>Secure — runs in the backend, so sensitive logic stays protected</t>
+  </si>
+  <si>
+    <t>🆕 Basic Example – Submitting a Form</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ Inside a Server Component (e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>app/page.js</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>import { useFormState } from 'react-dom';</t>
+  </si>
+  <si>
+    <t>import { saveNote } from './actions';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const [state, formAction] = useFormState(saveNote, { message: '' });</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    &lt;form action={formAction}&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;input type="text" name="note" /&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      &lt;button type="submit"&gt;Save&lt;/button&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      {state?.message &amp;&amp; &lt;p&gt;{state.message}&lt;/p&gt;}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">✅ Server Action – </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>app/actions.js</t>
+    </r>
+  </si>
+  <si>
+    <t>export async function saveNote(prevState, formData) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const note = formData.get('note');</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  // You can save to DB here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return { message: `Saved: ${note}` };</t>
+  </si>
+  <si>
+    <t>✅ Key Benefits of Server Actions</t>
+  </si>
+  <si>
+    <t>🧩 Built-in</t>
+  </si>
+  <si>
+    <t>No need to define separate API routes</t>
+  </si>
+  <si>
+    <t>🔒 Secure</t>
+  </si>
+  <si>
+    <t>Logic stays on the server – no exposure to the client</t>
+  </si>
+  <si>
+    <t>🔄 Simple mutation</t>
+  </si>
+  <si>
+    <t>Perfect for forms, updates, inserts, deletes</t>
+  </si>
+  <si>
+    <t>🚫 No API route</t>
+  </si>
+  <si>
+    <t>Less boilerplate – fewer files to manage</t>
+  </si>
+  <si>
+    <t>🤝 Works with Forms</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Native </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>form</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> element support</t>
+    </r>
+  </si>
+  <si>
+    <t>🎯 Selective loading</t>
+  </si>
+  <si>
+    <t>Only fetched or run when needed – zero client-side bundle size for logic</t>
+  </si>
+  <si>
+    <t>🧪 Experimental?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Next.js 15 (Canary)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Server Actions are still </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>experimental</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — so you need to enable it in your </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>next.config.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>experimental: {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  serverActions: true,</t>
+  </si>
+  <si>
+    <t>✅ When to Use Server Actions</t>
+  </si>
+  <si>
+    <t>Submitting forms (e.g. login, feedback)</t>
+  </si>
+  <si>
+    <t>Saving or updating database entries</t>
+  </si>
+  <si>
+    <t>Secure mutations (e.g. admin tasks)</t>
+  </si>
+  <si>
+    <t>Lightweight dashboards and CRUD apps</t>
+  </si>
+  <si>
+    <t>Let me know if you want a full CRUD example with Server Actions — happy to set that up!</t>
+  </si>
+  <si>
+    <t>🔍 What it gives:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Returns a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>RequestCookies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> object containing all the cookies in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>current request</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>export async function MyComponent() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const cookieStore = await cookies();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const token = cookieStore.get('token')?.value;</t>
+  </si>
+  <si>
+    <t>✅ Use it for:</t>
+  </si>
+  <si>
+    <t>Authentication tokens (e.g., JWT)</t>
+  </si>
+  <si>
+    <t>Locale or theme preference</t>
+  </si>
+  <si>
+    <t>CSRF tokens</t>
+  </si>
+  <si>
+    <t>Feature flags stored in cookies</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Returns the request </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>headers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the client making the request.</t>
+    </r>
+  </si>
+  <si>
+    <t>import { headers } from 'next/headers';</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const headersList = await headers();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const userAgent = headersList.get('user-agent');</t>
+  </si>
+  <si>
+    <t>Detecting user agent or device</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Custom headers (e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>x-client-id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Caching or analytics</t>
+  </si>
+  <si>
+    <t>Conditional rendering based on headers</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A new </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>App Router feature</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that allows you to generate the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>&lt;meta name="viewport"&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tag dynamically — </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>per route or layout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>export async function generateViewport() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    width: 'device-width',</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    initialScale: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    maximumScale: 1,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    userScalable: false,</t>
+  </si>
+  <si>
+    <t>Mobile vs desktop viewport handling</t>
+  </si>
+  <si>
+    <t>Per-page viewport control</t>
+  </si>
+  <si>
+    <t>Disabling zoom for certain views (e.g. dashboards or games)</t>
+  </si>
+  <si>
+    <t>📌 Reminder About the Breaking Change</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">All of these APIs are now </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>async</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, which means:</t>
+    </r>
+  </si>
+  <si>
+    <t>diff</t>
+  </si>
+  <si>
+    <t>- const cookieStore = cookies();     ❌ (old)</t>
+  </si>
+  <si>
+    <t>+ const cookieStore = await cookies(); ✅ (new)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Same goes for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>headers()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>draftMode()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, etc.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you want, I can give you a real-world use case combining these — like showing a preview banner based on draft mode + user agent + a cookie. Just say the word!</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🗺️ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>generateViewport()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🍪 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>cookies()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">📬 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>headers()</t>
+    </r>
+  </si>
+  <si>
+    <t>Server Action</t>
+  </si>
+  <si>
+    <t>action.js</t>
+  </si>
+  <si>
+    <t>"use server"</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dynamic segments</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the URL path — pulled from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>[slug]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>[id]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, etc. in your folder structure.</t>
+    </r>
+  </si>
+  <si>
+    <t>Example URL:</t>
+  </si>
+  <si>
+    <t>/posts/123</t>
+  </si>
+  <si>
+    <t>Folder structure:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  posts/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [id]/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      page.js</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Usage in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>page.js</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>export default async function Page({ params }) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const id = params.id; // '123'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return &lt;div&gt;Post ID: {id}&lt;/div&gt;;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fetching specific content from the database or API (e.g. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>post/123</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Page routing based on ID, slug, username, etc.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>query string values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (after the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in a URL).</t>
+    </r>
+  </si>
+  <si>
+    <t>/posts?sort=latest&amp;page=2</t>
+  </si>
+  <si>
+    <t>export default async function Page({ searchParams }) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const sort = searchParams.sort;   // 'latest'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const page = searchParams.page;   // '2'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return &lt;div&gt;Sort: {sort}, Page: {page}&lt;/div&gt;;</t>
+  </si>
+  <si>
+    <t>Filtering, sorting, pagination</t>
+  </si>
+  <si>
+    <t>Custom UIs like dashboards or listings</t>
+  </si>
+  <si>
+    <r>
+      <t>Toggling layout or view modes (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>?view=grid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>⚠️ Breaking Change in Next.js 15</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Both </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>params</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>searchParams</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are now </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>used asynchronously</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in some places — like </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>generateMetadata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>generateViewport</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, etc.</t>
+    </r>
+  </si>
+  <si>
+    <t>✅ Correct:</t>
+  </si>
+  <si>
+    <t>export async function generateMetadata({ params, searchParams }) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const postId = params.id;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  const viewMode = searchParams.view;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    title: `Post ${postId} | ${viewMode}`,</t>
+  </si>
+  <si>
+    <t>✨ Summary Table</t>
+  </si>
+  <si>
+    <t>Where it's used</t>
+  </si>
+  <si>
+    <t>What it gives you</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>Dynamic route segments</t>
+  </si>
+  <si>
+    <r>
+      <t>params.id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>params.slug</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, etc.</t>
+    </r>
+  </si>
+  <si>
+    <t>searchParams</t>
+  </si>
+  <si>
+    <t>Query string params</t>
+  </si>
+  <si>
+    <r>
+      <t>searchParams.page</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>searchParams.sort</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🔢 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>params</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Route Parameters)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">🔍 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>searchParams</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Query Strings)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4114,8 +5283,36 @@
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4134,6 +5331,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4148,7 +5351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4266,6 +5469,25 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4654,2838 +5876,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD6649B-4EF5-45A5-B2AD-06EBF6B31E80}">
-  <dimension ref="A1:A43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="109" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="39" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="39"/>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="39" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="39" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="39"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="39" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="39" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="39"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="39" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="39" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="39"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="39" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="39" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="39" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="39" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="39" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="39" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="39" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="39" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="39" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="39" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="39" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="39" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="39" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="39" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="39" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="39" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="39" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="39" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="39" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="39" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="39" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="39" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="39" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="39"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="39" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="39" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="39" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="39" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2595C62D-F30F-4C78-B481-56F4FFC148AC}">
-  <dimension ref="A1:A71"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="94.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="39" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="39"/>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="39" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="39" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="39"/>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="39" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="39" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="39" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="39" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="39" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="39" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="39" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="39"/>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="39" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="39" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="39" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="39"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="39" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="39" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="39" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="39"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="39" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="39"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="39" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="39" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="39"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="39" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="39" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="39"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="39" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="39" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="39" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="39"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="39" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="39" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="39" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="39" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="39" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="39" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="39" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="39" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="39" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="39" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="39"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="39" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="39" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="39" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="39" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="39" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="39" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="39" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="39" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="39" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="39" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="39"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="39" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="39" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="39" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="39" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="39" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="39" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="39" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="39" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE35C92-CF9E-4DF9-A59B-BA66D1E06368}">
-  <dimension ref="A1:A56"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="121.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC747CAD-D7C5-47E7-B234-01A054FCDF5B}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="39" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{939EBD25-F2D1-4B9B-8CCD-078CCFD8CB93}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18619508-2624-48FC-8435-F9279029FFA9}">
-  <dimension ref="A1:A72"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="101.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="18">
-      <c r="A1" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="9"/>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="11"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="11"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="11"/>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="18">
-      <c r="A23" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="9"/>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="13"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="13"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="13"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="14"/>
-    </row>
-    <row r="45" spans="1:1" ht="18">
-      <c r="A45" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="9"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="13"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="13"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="13"/>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="13"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BE26B6-13FA-4661-9419-C8FD38AE0D94}">
-  <dimension ref="A1:A114"/>
-  <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="140.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="45">
-      <c r="A1" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="7"/>
-    </row>
-    <row r="3" spans="1:1" ht="18">
-      <c r="A3" s="18" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="7"/>
-    </row>
-    <row r="5" spans="1:1" ht="45">
-      <c r="A5" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:1" ht="15.75">
-      <c r="A7" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="20"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="30">
-      <c r="A10" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="20"/>
-    </row>
-    <row r="12" spans="1:1" ht="30">
-      <c r="A12" s="20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="20"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="20"/>
-    </row>
-    <row r="16" spans="1:1" ht="30">
-      <c r="A16" s="20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="20"/>
-    </row>
-    <row r="18" spans="1:1" ht="30">
-      <c r="A18" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="20"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="21" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="20"/>
-    </row>
-    <row r="22" spans="1:1" ht="30">
-      <c r="A22" s="20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="7"/>
-    </row>
-    <row r="24" spans="1:1" ht="15.75">
-      <c r="A24" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="7"/>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="7"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="25"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="25"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="7"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="7"/>
-    </row>
-    <row r="45" spans="1:1" ht="30">
-      <c r="A45" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="7"/>
-    </row>
-    <row r="47" spans="1:1" ht="15.75">
-      <c r="A47" s="19" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="7"/>
-    </row>
-    <row r="49" spans="1:1" ht="30">
-      <c r="A49" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="7"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="7"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="24" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="24" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="25"/>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="25"/>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="20"/>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="22" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="20"/>
-    </row>
-    <row r="76" spans="1:1" ht="30">
-      <c r="A76" s="22" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="7"/>
-    </row>
-    <row r="78" spans="1:1" ht="15.75">
-      <c r="A78" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="7"/>
-    </row>
-    <row r="80" spans="1:1" ht="30">
-      <c r="A80" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="7"/>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="7"/>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="25"/>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="25"/>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="24" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="24" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="25"/>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="7"/>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="7"/>
-    </row>
-    <row r="106" spans="1:1" ht="15.75">
-      <c r="A106" s="19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="7"/>
-    </row>
-    <row r="108" spans="1:1" ht="30">
-      <c r="A108" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="7"/>
-    </row>
-    <row r="110" spans="1:1" ht="18">
-      <c r="A110" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="7"/>
-    </row>
-    <row r="112" spans="1:1" ht="30">
-      <c r="A112" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="7"/>
-    </row>
-    <row r="114" spans="1:1" ht="45">
-      <c r="A114" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECCF607-E9C3-46F5-BE5E-454E50A549C2}">
-  <dimension ref="A1:C159"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="121.140625" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" customWidth="1"/>
-    <col min="3" max="3" width="55.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="30">
-      <c r="A1" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-    </row>
-    <row r="3" spans="1:3" ht="75">
-      <c r="A3" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:3" ht="60">
-      <c r="A5" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-    </row>
-    <row r="7" spans="1:3" ht="45">
-      <c r="A7" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-    </row>
-    <row r="9" spans="1:3" ht="60">
-      <c r="A9" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-    </row>
-    <row r="11" spans="1:3" ht="75">
-      <c r="A11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:3" ht="30">
-      <c r="A13" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:3" ht="37.5">
-      <c r="A16" s="32" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" ht="15.75">
-      <c r="A20" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-    </row>
-    <row r="39" spans="1:3" ht="15.75">
-      <c r="A39" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="33"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="35" t="s">
-        <v>152</v>
-      </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="34"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="33"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="33" t="s">
-        <v>209</v>
-      </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="33" t="s">
-        <v>211</v>
-      </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="7"/>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="7"/>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="7"/>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="7"/>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="7"/>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="7"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="7"/>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="7"/>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="7"/>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="7"/>
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-    </row>
-    <row r="79" spans="1:3" ht="15.75">
-      <c r="A79" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="7"/>
-      <c r="B80" s="7"/>
-      <c r="C80" s="7"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="7"/>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="7"/>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="7"/>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="33" t="s">
-        <v>217</v>
-      </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="7"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="7"/>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="33"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="7"/>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="7"/>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="33" t="s">
-        <v>218</v>
-      </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="7"/>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="7"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="7"/>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
-      <c r="C99" s="7"/>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="B100" s="7"/>
-      <c r="C100" s="7"/>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="7"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B102" s="7"/>
-      <c r="C102" s="7"/>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B103" s="7"/>
-      <c r="C103" s="7"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B104" s="7"/>
-      <c r="C104" s="7"/>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="B105" s="7"/>
-      <c r="C105" s="7"/>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B106" s="7"/>
-      <c r="C106" s="7"/>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
-      <c r="C109" s="7"/>
-    </row>
-    <row r="110" spans="1:3" ht="15.75">
-      <c r="A110" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="B110" s="7"/>
-      <c r="C110" s="7"/>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
-      <c r="C111" s="7"/>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B112" s="7"/>
-      <c r="C112" s="7"/>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="B114" s="7"/>
-      <c r="C114" s="7"/>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="33"/>
-      <c r="B119" s="7"/>
-      <c r="C119" s="7"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B120" s="7"/>
-      <c r="C120" s="7"/>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B121" s="7"/>
-      <c r="C121" s="7"/>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="B122" s="7"/>
-      <c r="C122" s="7"/>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="7"/>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="33" t="s">
-        <v>128</v>
-      </c>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="7"/>
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="7"/>
-      <c r="B138" s="7"/>
-      <c r="C138" s="7"/>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="7"/>
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
-    </row>
-    <row r="140" spans="1:3" ht="15.75">
-      <c r="A140" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="7"/>
-      <c r="B141" s="7"/>
-      <c r="C141" s="7"/>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B142" s="7"/>
-      <c r="C142" s="7"/>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="7"/>
-      <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="B144" s="7"/>
-      <c r="C144" s="7"/>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="33" t="s">
-        <v>222</v>
-      </c>
-      <c r="B145" s="7"/>
-      <c r="C145" s="7"/>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="B146" s="7"/>
-      <c r="C146" s="7"/>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B147" s="7"/>
-      <c r="C147" s="7"/>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="7"/>
-      <c r="B148" s="7"/>
-      <c r="C148" s="7"/>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="7"/>
-      <c r="B149" s="7"/>
-      <c r="C149" s="7"/>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="7"/>
-      <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="7"/>
-      <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
-    </row>
-    <row r="153" spans="1:3" ht="45">
-      <c r="A153" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="45">
-      <c r="A154" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C154" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="60">
-      <c r="A155" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="60">
-      <c r="A156" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="30">
-      <c r="A157" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="60">
-      <c r="A158" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
-      <c r="A159" s="7"/>
-      <c r="B159" s="7"/>
-      <c r="C159" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8E8957-7F9C-4719-ABB3-CB727461C4BC}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B27"/>
@@ -7617,397 +6007,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59AC97C3-0015-4397-9B23-2AB12904B9F1}">
-  <dimension ref="A2:B89"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="96.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="26"/>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="36" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="18.75">
-      <c r="A6" s="15" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="26"/>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="26" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="26"/>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="26" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="26"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="26" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="26" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="23.25">
-      <c r="A16" s="37" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="9"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="38" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="40"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="38" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="38" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="40"/>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="38" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="38" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="38" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="38" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="38" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="38" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="38" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="38" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="40"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="38" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="38" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="38" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="40"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="38" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="38" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="38" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="18">
-      <c r="A41" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="9"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="38" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="38" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="38" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="38" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="38" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="38" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="38" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="38" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="38" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="38" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="39"/>
-    </row>
-    <row r="56" spans="1:1" ht="23.25">
-      <c r="A56" s="37" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="26"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="41" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="42"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="41" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="42"/>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="41" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="18">
-      <c r="A66" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="9"/>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="38" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="38" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="38" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="38" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="38" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="38" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="38" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="38" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="38" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="9"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="B80" s="39"/>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="40"/>
-      <c r="B81" s="39"/>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="B82" s="39"/>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="B83" s="39"/>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="38" t="s">
-        <v>274</v>
-      </c>
-      <c r="B84" s="39"/>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="40"/>
-      <c r="B85" s="39"/>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="38" t="s">
-        <v>275</v>
-      </c>
-      <c r="B86" s="39"/>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="40"/>
-      <c r="B87" s="39"/>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="38" t="s">
-        <v>276</v>
-      </c>
-      <c r="B88" s="39"/>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="B89" s="39"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99DCB97-8F11-4900-9638-BEF02696CB7C}">
   <dimension ref="A1:B159"/>
   <sheetViews>
@@ -8876,7 +6876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA46758F-4BC6-4F4E-98F1-B2459058881A}">
   <dimension ref="A1:B250"/>
   <sheetViews>
@@ -10238,4 +8238,4143 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD6649B-4EF5-45A5-B2AD-06EBF6B31E80}">
+  <dimension ref="A1:A43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="109" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="39"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="39" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="39" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="39"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="39" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="39" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="39"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="39" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="39" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="39"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="39" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="39" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="39" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="39" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="39" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="39" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="39" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="39" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="39" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="39" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="39" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="39" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="39" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="39" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="39" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="39" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="39" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="39" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="39" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="39" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="39"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="39" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="39" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="39" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="39" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2595C62D-F30F-4C78-B481-56F4FFC148AC}">
+  <dimension ref="A1:A71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="94.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="39"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="39" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="39" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="39"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="39" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="39" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="39" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="39" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="39" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="39" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="39" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="39" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="39"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="39" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="39" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="39" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="39"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="39" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="39" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="39" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="39"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="39" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="39"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="39" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="39" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="39"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="39" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="39" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="39"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="39" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="39" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="39" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="39"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="39" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="39" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="39" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="39" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="39" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="39" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="39" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="39" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="39" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="39"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="39" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="39" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="39" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="39" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="39" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="39" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="39" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="39" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="39"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="39" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="39" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="39" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="39" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="39" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="39" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="39" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="39" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE35C92-CF9E-4DF9-A59B-BA66D1E06368}">
+  <dimension ref="A1:A56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="121.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC747CAD-D7C5-47E7-B234-01A054FCDF5B}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="3" customFormat="1" ht="39" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>636</v>
+      </c>
+      <c r="B7" t="s">
+        <v>637</v>
+      </c>
+      <c r="C7" t="s">
+        <v>638</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{939EBD25-F2D1-4B9B-8CCD-078CCFD8CB93}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BE26B6-13FA-4661-9419-C8FD38AE0D94}">
+  <dimension ref="A1:A114"/>
+  <sheetViews>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="140.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="45">
+      <c r="A1" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="7"/>
+    </row>
+    <row r="3" spans="1:1" ht="18">
+      <c r="A3" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="7"/>
+    </row>
+    <row r="5" spans="1:1" ht="45">
+      <c r="A5" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:1" ht="15.75">
+      <c r="A7" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="20"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="30">
+      <c r="A10" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="20"/>
+    </row>
+    <row r="12" spans="1:1" ht="30">
+      <c r="A12" s="20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="20"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="20"/>
+    </row>
+    <row r="16" spans="1:1" ht="30">
+      <c r="A16" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="20"/>
+    </row>
+    <row r="18" spans="1:1" ht="30">
+      <c r="A18" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="20"/>
+    </row>
+    <row r="22" spans="1:1" ht="30">
+      <c r="A22" s="20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="7"/>
+    </row>
+    <row r="24" spans="1:1" ht="15.75">
+      <c r="A24" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="7"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="7"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="25"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="25"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="7"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="7"/>
+    </row>
+    <row r="45" spans="1:1" ht="30">
+      <c r="A45" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="7"/>
+    </row>
+    <row r="47" spans="1:1" ht="15.75">
+      <c r="A47" s="19" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="7"/>
+    </row>
+    <row r="49" spans="1:1" ht="30">
+      <c r="A49" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="7"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="7"/>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="24" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="25"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="25"/>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="20"/>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="20"/>
+    </row>
+    <row r="76" spans="1:1" ht="30">
+      <c r="A76" s="22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="7"/>
+    </row>
+    <row r="78" spans="1:1" ht="15.75">
+      <c r="A78" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="7"/>
+    </row>
+    <row r="80" spans="1:1" ht="30">
+      <c r="A80" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="7"/>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="7"/>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="25"/>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="25"/>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="25"/>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="7"/>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="7"/>
+    </row>
+    <row r="106" spans="1:1" ht="15.75">
+      <c r="A106" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="7"/>
+    </row>
+    <row r="108" spans="1:1" ht="30">
+      <c r="A108" s="23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="7"/>
+    </row>
+    <row r="110" spans="1:1" ht="18">
+      <c r="A110" s="18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="7"/>
+    </row>
+    <row r="112" spans="1:1" ht="30">
+      <c r="A112" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="7"/>
+    </row>
+    <row r="114" spans="1:1" ht="45">
+      <c r="A114" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18619508-2624-48FC-8435-F9279029FFA9}">
+  <dimension ref="A1:A72"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="101.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18">
+      <c r="A1" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="9"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="11"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="11"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="11"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18">
+      <c r="A23" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="9"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="13"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="13"/>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="13"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="14"/>
+    </row>
+    <row r="45" spans="1:1" ht="18">
+      <c r="A45" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="9"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="13"/>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="13"/>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="13"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="13"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECCF607-E9C3-46F5-BE5E-454E50A549C2}">
+  <dimension ref="A1:C159"/>
+  <sheetViews>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="121.140625" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="55.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30">
+      <c r="A1" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" ht="75">
+      <c r="A3" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" ht="60">
+      <c r="A5" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" ht="45">
+      <c r="A7" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" ht="60">
+      <c r="A9" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" ht="75">
+      <c r="A11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" ht="30">
+      <c r="A13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" ht="37.5">
+      <c r="A16" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" ht="15.75">
+      <c r="A20" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75">
+      <c r="A39" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="33"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="34"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="33"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="33" t="s">
+        <v>209</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="7"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+    </row>
+    <row r="79" spans="1:3" ht="15.75">
+      <c r="A79" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="33"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="7"/>
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="7"/>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="7"/>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="7"/>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+    </row>
+    <row r="110" spans="1:3" ht="15.75">
+      <c r="A110" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="7"/>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="7"/>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="33"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="7"/>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="7"/>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="7"/>
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="7"/>
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="7"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+    </row>
+    <row r="140" spans="1:3" ht="15.75">
+      <c r="A140" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="7"/>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="7"/>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="7"/>
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="7"/>
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="7"/>
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="7"/>
+      <c r="B152" s="7"/>
+      <c r="C152" s="7"/>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C154" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="7"/>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC16594A-3190-4448-9150-C9A14C0F54A5}">
+  <dimension ref="A1:B83"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="107.85546875" customWidth="1"/>
+    <col min="2" max="2" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18">
+      <c r="A1" s="8" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="26"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="26" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="26"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="26" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="26"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="26" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="26"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="26" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="18">
+      <c r="A15" s="8" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75">
+      <c r="A17" s="45" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="9"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="47" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="48"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="47" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="47" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="48"/>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="47" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="48"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="47" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="47" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="47" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="47" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="47" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75">
+      <c r="A36" s="45" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="9"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="47" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="48"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="47" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="47" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="47" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="47" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="18">
+      <c r="A48" s="8" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="30">
+      <c r="A50" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="90">
+      <c r="A51" s="28" t="s">
+        <v>577</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="120">
+      <c r="A52" s="28" t="s">
+        <v>579</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="90">
+      <c r="A53" s="28" t="s">
+        <v>581</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="90">
+      <c r="A54" s="28" t="s">
+        <v>583</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="60">
+      <c r="A55" s="28" t="s">
+        <v>585</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="165">
+      <c r="A56" s="28" t="s">
+        <v>587</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="18">
+      <c r="A59" s="8" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="9"/>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="46" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="46" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="46" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="18">
+      <c r="A71" s="8" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="26"/>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="26" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="26"/>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="26" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="26"/>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="26" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="26"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="26" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>598</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7045823B-2341-48A8-9D96-A2C4B60B747C}">
+  <dimension ref="A1:C63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:A55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="153.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="28.5">
+      <c r="A1" s="49" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="18">
+      <c r="A3" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75">
+      <c r="A5" s="45" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="46" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="46" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75">
+      <c r="A10" s="45" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="47" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="47" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="47" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="47" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.75">
+      <c r="A16" s="45" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="47" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="47" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="47" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="18">
+      <c r="A22" s="8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="26" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="26" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="28.5">
+      <c r="A26" s="49" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="18">
+      <c r="A27" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.75">
+      <c r="A29" s="45" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="47" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75">
+      <c r="A32" s="45" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="47" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="47" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="47" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="47" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="51"/>
+    </row>
+    <row r="39" spans="1:1" ht="18">
+      <c r="A39" s="8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="26" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="26" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="26" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="23.25">
+      <c r="A44" s="37" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="18">
+      <c r="A46" s="8" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="9"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="47" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="47" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="47" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="48"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="47" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="23.25">
+      <c r="A59" s="37" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="45">
+      <c r="A61" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>669</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="60">
+      <c r="A62" s="29" t="s">
+        <v>671</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>672</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="66">
+      <c r="A63" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>675</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>676</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0307783-1FDE-44A4-BFBE-47723E6F88D6}">
+  <dimension ref="A54:A122"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="54" spans="1:1" ht="28.5">
+      <c r="A54" s="49" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="18">
+      <c r="A56" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="9"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="47" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="48"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="47" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="47" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="47" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="18">
+      <c r="A66" s="8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="26" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="26" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="26" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="26" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="28.5">
+      <c r="A74" s="49" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="18">
+      <c r="A75" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="47" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="48"/>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="47" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="47" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="47" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" ht="18">
+      <c r="A84" s="8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="26" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="26" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="26" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="26" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" ht="31.5">
+      <c r="A90" s="50" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="18">
+      <c r="A91" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="46" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="46" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="46" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="46" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="46" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" ht="18">
+      <c r="A104" s="8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="26" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="26" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="26" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" ht="23.25">
+      <c r="A109" s="37" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="9"/>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="46" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="46" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="46" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>632</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59AC97C3-0015-4397-9B23-2AB12904B9F1}">
+  <dimension ref="A2:B89"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="96.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="26"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="18.75">
+      <c r="A6" s="15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="26"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="26" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="26"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="26"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="26" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="26" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="23.25">
+      <c r="A16" s="37" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="9"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="38" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="40"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="38" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="38" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="40"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="38" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="38" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="38" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="38" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="38" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="40"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="38" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="38" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="38" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="40"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="38" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="38" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="18">
+      <c r="A41" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="9"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="38" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="38" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="38" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="38" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="38" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="38" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="39"/>
+    </row>
+    <row r="56" spans="1:1" ht="23.25">
+      <c r="A56" s="37" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="26"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="41" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="42"/>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="41" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="42"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="41" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18">
+      <c r="A66" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="9"/>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="38" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="38" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="38" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="38" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="38" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="38" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="38" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="9"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B80" s="39"/>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="40"/>
+      <c r="B81" s="39"/>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="B82" s="39"/>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="B83" s="39"/>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="B84" s="39"/>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="40"/>
+      <c r="B85" s="39"/>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="B86" s="39"/>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="40"/>
+      <c r="B87" s="39"/>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="B88" s="39"/>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/NextJs Notes.xlsx
+++ b/NextJs Notes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nextJs\pcmc-inmers-shadcn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CACF14-E88A-45FE-8CCC-29D4F291C58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ABF4B4-427E-410F-B4D7-847E67795C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="870" windowWidth="19440" windowHeight="14880" firstSheet="4" activeTab="6" xr2:uid="{7C365369-33F3-46D7-850E-66C6CABD008F}"/>
+    <workbookView xWindow="28680" yWindow="870" windowWidth="19440" windowHeight="14880" firstSheet="2" activeTab="4" xr2:uid="{7C365369-33F3-46D7-850E-66C6CABD008F}"/>
   </bookViews>
   <sheets>
     <sheet name="Folder Structure" sheetId="2" r:id="rId1"/>
@@ -9199,7 +9199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BE26B6-13FA-4661-9419-C8FD38AE0D94}">
   <dimension ref="A1:A114"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
@@ -9711,8 +9711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18619508-2624-48FC-8435-F9279029FFA9}">
   <dimension ref="A1:A72"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10037,7 +10037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECCF607-E9C3-46F5-BE5E-454E50A549C2}">
   <dimension ref="A1:C159"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
       <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
@@ -11272,7 +11272,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="30">
+    <row r="50" spans="1:2">
       <c r="A50" s="27" t="s">
         <v>2</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="90">
+    <row r="51" spans="1:2">
       <c r="A51" s="28" t="s">
         <v>577</v>
       </c>
@@ -11288,7 +11288,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="120">
+    <row r="52" spans="1:2" ht="30">
       <c r="A52" s="28" t="s">
         <v>579</v>
       </c>
@@ -11296,7 +11296,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="90">
+    <row r="53" spans="1:2">
       <c r="A53" s="28" t="s">
         <v>581</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="90">
+    <row r="54" spans="1:2">
       <c r="A54" s="28" t="s">
         <v>583</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="60">
+    <row r="55" spans="1:2">
       <c r="A55" s="28" t="s">
         <v>585</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="165">
+    <row r="56" spans="1:2" ht="30">
       <c r="A56" s="28" t="s">
         <v>587</v>
       </c>
@@ -11418,8 +11418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7045823B-2341-48A8-9D96-A2C4B60B747C}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:A55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11706,10 +11706,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0307783-1FDE-44A4-BFBE-47723E6F88D6}">
-  <dimension ref="A54:A122"/>
+  <dimension ref="A2:A70"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A52" sqref="A1:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11717,270 +11717,270 @@
     <col min="1" max="1" width="125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="54" spans="1:1" ht="28.5">
-      <c r="A54" s="49" t="s">
+    <row r="2" spans="1:1" ht="28.5">
+      <c r="A2" s="49" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="18">
-      <c r="A56" s="8" t="s">
+    <row r="4" spans="1:1" ht="18">
+      <c r="A4" s="8" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>600</v>
       </c>
     </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="9"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="47" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="48"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="47" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="47" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="47" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="18">
+      <c r="A14" s="8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="26" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="26" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="26" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="26" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="28.5">
+      <c r="A22" s="49" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18">
+      <c r="A23" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="47" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="48"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="47" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="47" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="47" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="18">
+      <c r="A32" s="8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="26" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="26" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="26" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="26" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="31.5">
+      <c r="A38" s="50" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="18">
+      <c r="A39" s="8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="46" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="46" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="46" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="46" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="46" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="46" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="18">
+      <c r="A52" s="8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="26" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="26" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="26" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="23.25">
+      <c r="A57" s="37" t="s">
+        <v>626</v>
+      </c>
+    </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="9"/>
+      <c r="A59" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="47" t="s">
-        <v>340</v>
-      </c>
+      <c r="A60" s="9"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="48"/>
+      <c r="A61" s="46" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="47" t="s">
-        <v>601</v>
+      <c r="A62" s="46" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="47" t="s">
-        <v>602</v>
+      <c r="A63" s="46" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="47" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" ht="18">
-      <c r="A66" s="8" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="26" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="26" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="26" t="s">
-        <v>607</v>
+      <c r="A64" s="46" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="26" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" ht="28.5">
-      <c r="A74" s="49" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" ht="18">
-      <c r="A75" s="8" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="47" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="48"/>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="47" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="47" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="47" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="47" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" ht="18">
-      <c r="A84" s="8" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="26" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="26" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="26" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="26" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" ht="31.5">
-      <c r="A90" s="50" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" ht="18">
-      <c r="A91" s="8" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="46" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="46" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="46" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="46" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="46" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="46" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="46" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="46" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" ht="18">
-      <c r="A104" s="8" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="26" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="26" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="26" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" ht="23.25">
-      <c r="A109" s="37" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="9"/>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="46" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="46" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="46" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="46" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+      <c r="A70" t="s">
         <v>632</v>
       </c>
     </row>
